--- a/out/domingo - salida.xlsx/resumen_2.xlsx
+++ b/out/domingo - salida.xlsx/resumen_2.xlsx
@@ -493,22 +493,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.234375</v>
+        <v>0.171875</v>
       </c>
       <c r="C3" t="n">
-        <v>30.265625</v>
+        <v>29.703125</v>
       </c>
       <c r="D3" t="n">
-        <v>37.34375</v>
+        <v>34.171875</v>
       </c>
       <c r="E3" t="n">
-        <v>5.75</v>
+        <v>5.46875</v>
       </c>
       <c r="F3" t="n">
-        <v>6.484375</v>
+        <v>6.703125</v>
       </c>
       <c r="G3" t="n">
-        <v>8.0625</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
@@ -518,22 +518,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.495765801723687</v>
+        <v>0.4897257898113486</v>
       </c>
       <c r="C4" t="n">
-        <v>9.167302467127913</v>
+        <v>10.93368130616408</v>
       </c>
       <c r="D4" t="n">
-        <v>13.60230926939678</v>
+        <v>11.82619461061985</v>
       </c>
       <c r="E4" t="n">
-        <v>2.731358171371426</v>
+        <v>3.023551732543215</v>
       </c>
       <c r="F4" t="n">
-        <v>4.027651202170963</v>
+        <v>4.092888480170345</v>
       </c>
       <c r="G4" t="n">
-        <v>4.155222378630657</v>
+        <v>2.281742581087798</v>
       </c>
     </row>
     <row r="5">
@@ -546,13 +546,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -571,19 +571,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>23.75</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>26.75</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
-        <v>3.75</v>
-      </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>29.5</v>
+        <v>26.5</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5</v>
+        <v>32.5</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8">
@@ -621,19 +621,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>36.25</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>49</v>
+        <v>38.25</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="G8" t="n">
-        <v>10.25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -646,19 +646,19 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
